--- a/CD4_clustering/Resolution04/Frequency_table.xlsx
+++ b/CD4_clustering/Resolution04/Frequency_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Documents/GitHub/SP028_Autoimmunity/CD4_clustering/Resolution04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9286144-2619-604E-A535-6158B8EF0BCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E065D743-7C69-0846-8899-D714D79B9A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiseaseType_freq_res04" sheetId="4" r:id="rId1"/>
@@ -1449,7 +1449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7861,7 +7863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
